--- a/Data/ROY Data/rookies_09_10.xlsx
+++ b/Data/ROY Data/rookies_09_10.xlsx
@@ -876,76 +876,76 @@
         <v>29</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="H2">
-        <v>1264</v>
+        <v>891</v>
       </c>
       <c r="I2">
-        <v>203</v>
+        <v>147</v>
       </c>
       <c r="J2">
-        <v>461</v>
+        <v>340</v>
       </c>
       <c r="K2">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="L2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="M2">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="N2">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="O2">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="P2">
-        <v>292</v>
+        <v>208</v>
       </c>
       <c r="Q2">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="R2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="S2">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="T2">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="U2">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="V2">
-        <v>501</v>
+        <v>367</v>
       </c>
       <c r="W2">
-        <v>0.44</v>
+        <v>0.432</v>
       </c>
       <c r="X2">
-        <v>0.347</v>
+        <v>0.346</v>
       </c>
       <c r="Y2">
-        <v>0.674</v>
+        <v>0.6870000000000001</v>
       </c>
       <c r="Z2">
-        <v>12.3</v>
+        <v>14.1</v>
       </c>
       <c r="AA2">
-        <v>4.9</v>
+        <v>5.8</v>
       </c>
       <c r="AB2">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="AC2">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="AD2" t="s">
         <v>130</v>
@@ -1054,76 +1054,73 @@
         <v>22</v>
       </c>
       <c r="F4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>237</v>
+        <v>39</v>
       </c>
       <c r="H4">
-        <v>2322</v>
+        <v>405</v>
       </c>
       <c r="I4">
-        <v>287</v>
+        <v>43</v>
       </c>
       <c r="J4">
-        <v>519</v>
+        <v>65</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="N4">
-        <v>147</v>
+        <v>20</v>
       </c>
       <c r="O4">
-        <v>196</v>
+        <v>25</v>
       </c>
       <c r="P4">
-        <v>632</v>
+        <v>98</v>
       </c>
       <c r="Q4">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="R4">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="S4">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="T4">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="U4">
-        <v>360</v>
+        <v>76</v>
       </c>
       <c r="V4">
-        <v>690</v>
+        <v>104</v>
       </c>
       <c r="W4">
-        <v>0.553</v>
-      </c>
-      <c r="X4">
-        <v>0.4</v>
+        <v>0.662</v>
       </c>
       <c r="Y4">
-        <v>0.776</v>
+        <v>0.9</v>
       </c>
       <c r="Z4">
-        <v>9.800000000000001</v>
+        <v>10.4</v>
       </c>
       <c r="AA4">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="AB4">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="AC4">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AD4" t="s">
         <v>130</v>
@@ -1146,76 +1143,76 @@
         <v>21</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>182</v>
+        <v>56</v>
       </c>
       <c r="H5">
-        <v>2896</v>
+        <v>700</v>
       </c>
       <c r="I5">
-        <v>502</v>
+        <v>155</v>
       </c>
       <c r="J5">
-        <v>1143</v>
+        <v>299</v>
       </c>
       <c r="K5">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="L5">
+        <v>110</v>
+      </c>
+      <c r="M5">
+        <v>42</v>
+      </c>
+      <c r="N5">
+        <v>52</v>
+      </c>
+      <c r="O5">
+        <v>12</v>
+      </c>
+      <c r="P5">
+        <v>78</v>
+      </c>
+      <c r="Q5">
+        <v>74</v>
+      </c>
+      <c r="R5">
+        <v>29</v>
+      </c>
+      <c r="S5">
+        <v>12</v>
+      </c>
+      <c r="T5">
+        <v>54</v>
+      </c>
+      <c r="U5">
+        <v>84</v>
+      </c>
+      <c r="V5">
         <v>397</v>
       </c>
-      <c r="M5">
-        <v>153</v>
-      </c>
-      <c r="N5">
-        <v>189</v>
-      </c>
-      <c r="O5">
-        <v>47</v>
-      </c>
-      <c r="P5">
-        <v>338</v>
-      </c>
-      <c r="Q5">
-        <v>374</v>
-      </c>
-      <c r="R5">
-        <v>124</v>
-      </c>
-      <c r="S5">
-        <v>52</v>
-      </c>
-      <c r="T5">
-        <v>204</v>
-      </c>
-      <c r="U5">
-        <v>312</v>
-      </c>
-      <c r="V5">
-        <v>1286</v>
-      </c>
       <c r="W5">
-        <v>0.439</v>
+        <v>0.518</v>
       </c>
       <c r="X5">
-        <v>0.325</v>
+        <v>0.409</v>
       </c>
       <c r="Y5">
-        <v>0.8100000000000001</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="Z5">
-        <v>15.9</v>
+        <v>12.5</v>
       </c>
       <c r="AA5">
         <v>7.1</v>
       </c>
       <c r="AB5">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="AC5">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="AD5" t="s">
         <v>130</v>
@@ -1238,73 +1235,73 @@
         <v>20</v>
       </c>
       <c r="F6">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>424</v>
+        <v>82</v>
       </c>
       <c r="H6">
-        <v>7054</v>
+        <v>1494</v>
       </c>
       <c r="I6">
-        <v>1242</v>
+        <v>275</v>
       </c>
       <c r="J6">
-        <v>2371</v>
+        <v>495</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="M6">
-        <v>381</v>
+        <v>88</v>
       </c>
       <c r="N6">
-        <v>627</v>
+        <v>161</v>
       </c>
       <c r="O6">
-        <v>810</v>
+        <v>200</v>
       </c>
       <c r="P6">
-        <v>2153</v>
+        <v>526</v>
       </c>
       <c r="Q6">
-        <v>349</v>
+        <v>65</v>
       </c>
       <c r="R6">
-        <v>316</v>
+        <v>50</v>
       </c>
       <c r="S6">
-        <v>127</v>
+        <v>39</v>
       </c>
       <c r="T6">
-        <v>471</v>
+        <v>112</v>
       </c>
       <c r="U6">
-        <v>1003</v>
+        <v>224</v>
       </c>
       <c r="V6">
-        <v>2865</v>
+        <v>638</v>
       </c>
       <c r="W6">
-        <v>0.524</v>
+        <v>0.556</v>
       </c>
       <c r="X6">
         <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.608</v>
+        <v>0.547</v>
       </c>
       <c r="Z6">
-        <v>16.6</v>
+        <v>18.2</v>
       </c>
       <c r="AA6">
-        <v>6.8</v>
+        <v>7.8</v>
       </c>
       <c r="AB6">
-        <v>5.1</v>
+        <v>6.4</v>
       </c>
       <c r="AC6">
         <v>0.8</v>
@@ -1330,76 +1327,73 @@
         <v>22</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>150</v>
+        <v>52</v>
       </c>
       <c r="H7">
-        <v>1570</v>
+        <v>654</v>
       </c>
       <c r="I7">
-        <v>118</v>
+        <v>55</v>
       </c>
       <c r="J7">
-        <v>242</v>
+        <v>103</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="N7">
-        <v>136</v>
+        <v>62</v>
       </c>
       <c r="O7">
-        <v>212</v>
+        <v>105</v>
       </c>
       <c r="P7">
-        <v>472</v>
+        <v>213</v>
       </c>
       <c r="Q7">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="R7">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="S7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="T7">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="U7">
-        <v>267</v>
+        <v>115</v>
       </c>
       <c r="V7">
-        <v>320</v>
+        <v>147</v>
       </c>
       <c r="W7">
-        <v>0.488</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
+        <v>0.534</v>
       </c>
       <c r="Y7">
-        <v>0.618</v>
+        <v>0.597</v>
       </c>
       <c r="Z7">
-        <v>10.5</v>
+        <v>12.6</v>
       </c>
       <c r="AA7">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="AB7">
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
       <c r="AC7">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AD7" t="s">
         <v>130</v>
@@ -1422,76 +1416,76 @@
         <v>22</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>171</v>
+        <v>57</v>
       </c>
       <c r="H8">
-        <v>2554</v>
+        <v>535</v>
       </c>
       <c r="I8">
-        <v>354</v>
+        <v>68</v>
       </c>
       <c r="J8">
-        <v>687</v>
+        <v>147</v>
       </c>
       <c r="K8">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="M8">
-        <v>174</v>
+        <v>48</v>
       </c>
       <c r="N8">
-        <v>273</v>
+        <v>72</v>
       </c>
       <c r="O8">
-        <v>167</v>
+        <v>31</v>
       </c>
       <c r="P8">
-        <v>413</v>
+        <v>78</v>
       </c>
       <c r="Q8">
-        <v>119</v>
+        <v>19</v>
       </c>
       <c r="R8">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="S8">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="T8">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="U8">
-        <v>208</v>
+        <v>53</v>
       </c>
       <c r="V8">
-        <v>895</v>
+        <v>186</v>
       </c>
       <c r="W8">
-        <v>0.515</v>
+        <v>0.463</v>
       </c>
       <c r="X8">
-        <v>0.317</v>
+        <v>0.286</v>
       </c>
       <c r="Y8">
-        <v>0.637</v>
+        <v>0.667</v>
       </c>
       <c r="Z8">
-        <v>14.9</v>
+        <v>9.4</v>
       </c>
       <c r="AA8">
-        <v>5.2</v>
+        <v>3.3</v>
       </c>
       <c r="AB8">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="AC8">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="AD8" t="s">
         <v>130</v>
@@ -1514,70 +1508,70 @@
         <v>21</v>
       </c>
       <c r="F9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>407</v>
+        <v>74</v>
       </c>
       <c r="H9">
-        <v>7998</v>
+        <v>1488</v>
       </c>
       <c r="I9">
-        <v>1188</v>
+        <v>249</v>
       </c>
       <c r="J9">
-        <v>2766</v>
+        <v>565</v>
       </c>
       <c r="K9">
-        <v>413</v>
+        <v>92</v>
       </c>
       <c r="L9">
-        <v>1172</v>
+        <v>249</v>
       </c>
       <c r="M9">
-        <v>409</v>
+        <v>67</v>
       </c>
       <c r="N9">
-        <v>513</v>
+        <v>87</v>
       </c>
       <c r="O9">
-        <v>238</v>
+        <v>38</v>
       </c>
       <c r="P9">
-        <v>1240</v>
+        <v>220</v>
       </c>
       <c r="Q9">
-        <v>473</v>
+        <v>88</v>
       </c>
       <c r="R9">
-        <v>213</v>
+        <v>34</v>
       </c>
       <c r="S9">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="T9">
-        <v>310</v>
+        <v>48</v>
       </c>
       <c r="U9">
-        <v>485</v>
+        <v>85</v>
       </c>
       <c r="V9">
-        <v>3198</v>
+        <v>657</v>
       </c>
       <c r="W9">
-        <v>0.43</v>
+        <v>0.441</v>
       </c>
       <c r="X9">
-        <v>0.352</v>
+        <v>0.369</v>
       </c>
       <c r="Y9">
-        <v>0.797</v>
+        <v>0.77</v>
       </c>
       <c r="Z9">
-        <v>19.7</v>
+        <v>20.1</v>
       </c>
       <c r="AA9">
-        <v>7.9</v>
+        <v>8.9</v>
       </c>
       <c r="AB9">
         <v>3</v>
@@ -1606,76 +1600,76 @@
         <v>23</v>
       </c>
       <c r="F10">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>575</v>
+        <v>71</v>
       </c>
       <c r="H10">
-        <v>13616</v>
+        <v>795</v>
       </c>
       <c r="I10">
-        <v>1802</v>
+        <v>88</v>
       </c>
       <c r="J10">
-        <v>4192</v>
+        <v>222</v>
       </c>
       <c r="K10">
-        <v>657</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>1833</v>
+        <v>6</v>
       </c>
       <c r="M10">
-        <v>875</v>
+        <v>33</v>
       </c>
       <c r="N10">
-        <v>1182</v>
+        <v>53</v>
       </c>
       <c r="O10">
-        <v>654</v>
+        <v>53</v>
       </c>
       <c r="P10">
-        <v>2446</v>
+        <v>150</v>
       </c>
       <c r="Q10">
-        <v>719</v>
+        <v>33</v>
       </c>
       <c r="R10">
-        <v>520</v>
+        <v>28</v>
       </c>
       <c r="S10">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="T10">
-        <v>497</v>
+        <v>24</v>
       </c>
       <c r="U10">
-        <v>1123</v>
+        <v>107</v>
       </c>
       <c r="V10">
-        <v>5136</v>
+        <v>209</v>
       </c>
       <c r="W10">
-        <v>0.43</v>
+        <v>0.396</v>
       </c>
       <c r="X10">
-        <v>0.358</v>
+        <v>0</v>
       </c>
       <c r="Y10">
-        <v>0.74</v>
+        <v>0.623</v>
       </c>
       <c r="Z10">
-        <v>23.7</v>
+        <v>11.2</v>
       </c>
       <c r="AA10">
-        <v>8.9</v>
+        <v>2.9</v>
       </c>
       <c r="AB10">
-        <v>4.3</v>
+        <v>2.1</v>
       </c>
       <c r="AC10">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="AD10" t="s">
         <v>130</v>
@@ -1698,76 +1692,76 @@
         <v>21</v>
       </c>
       <c r="F11">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>588</v>
+        <v>77</v>
       </c>
       <c r="H11">
-        <v>11959</v>
+        <v>1931</v>
       </c>
       <c r="I11">
-        <v>1718</v>
+        <v>300</v>
       </c>
       <c r="J11">
-        <v>3781</v>
+        <v>672</v>
       </c>
       <c r="K11">
-        <v>493</v>
+        <v>75</v>
       </c>
       <c r="L11">
-        <v>1339</v>
+        <v>203</v>
       </c>
       <c r="M11">
-        <v>713</v>
+        <v>117</v>
       </c>
       <c r="N11">
-        <v>1052</v>
+        <v>174</v>
       </c>
       <c r="O11">
-        <v>473</v>
+        <v>75</v>
       </c>
       <c r="P11">
-        <v>2355</v>
+        <v>349</v>
       </c>
       <c r="Q11">
-        <v>662</v>
+        <v>95</v>
       </c>
       <c r="R11">
-        <v>362</v>
+        <v>54</v>
       </c>
       <c r="S11">
-        <v>134</v>
+        <v>17</v>
       </c>
       <c r="T11">
-        <v>595</v>
+        <v>98</v>
       </c>
       <c r="U11">
-        <v>917</v>
+        <v>125</v>
       </c>
       <c r="V11">
-        <v>4642</v>
+        <v>792</v>
       </c>
       <c r="W11">
-        <v>0.454</v>
+        <v>0.446</v>
       </c>
       <c r="X11">
-        <v>0.368</v>
+        <v>0.369</v>
       </c>
       <c r="Y11">
-        <v>0.678</v>
+        <v>0.672</v>
       </c>
       <c r="Z11">
-        <v>20.3</v>
+        <v>25.1</v>
       </c>
       <c r="AA11">
-        <v>7.9</v>
+        <v>10.3</v>
       </c>
       <c r="AB11">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AC11">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="AD11" t="s">
         <v>130</v>
@@ -1790,76 +1784,76 @@
         <v>22</v>
       </c>
       <c r="F12">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>261</v>
+        <v>51</v>
       </c>
       <c r="H12">
-        <v>3630</v>
+        <v>383</v>
       </c>
       <c r="I12">
-        <v>453</v>
+        <v>56</v>
       </c>
       <c r="J12">
-        <v>1125</v>
+        <v>151</v>
       </c>
       <c r="K12">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>250</v>
+        <v>5</v>
       </c>
       <c r="M12">
-        <v>150</v>
+        <v>26</v>
       </c>
       <c r="N12">
-        <v>226</v>
+        <v>36</v>
       </c>
       <c r="O12">
-        <v>195</v>
+        <v>18</v>
       </c>
       <c r="P12">
-        <v>778</v>
+        <v>62</v>
       </c>
       <c r="Q12">
-        <v>134</v>
+        <v>21</v>
       </c>
       <c r="R12">
-        <v>83</v>
+        <v>7</v>
       </c>
       <c r="S12">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="T12">
-        <v>175</v>
+        <v>23</v>
       </c>
       <c r="U12">
-        <v>323</v>
+        <v>25</v>
       </c>
       <c r="V12">
-        <v>1138</v>
+        <v>140</v>
       </c>
       <c r="W12">
-        <v>0.403</v>
+        <v>0.371</v>
       </c>
       <c r="X12">
-        <v>0.328</v>
+        <v>0.4</v>
       </c>
       <c r="Y12">
-        <v>0.664</v>
+        <v>0.722</v>
       </c>
       <c r="Z12">
-        <v>13.9</v>
+        <v>7.5</v>
       </c>
       <c r="AA12">
-        <v>4.4</v>
+        <v>2.7</v>
       </c>
       <c r="AB12">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="AC12">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AD12" t="s">
         <v>130</v>
@@ -1882,76 +1876,76 @@
         <v>22</v>
       </c>
       <c r="F13">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>708</v>
+        <v>76</v>
       </c>
       <c r="H13">
-        <v>20796</v>
+        <v>2109</v>
       </c>
       <c r="I13">
-        <v>3270</v>
+        <v>376</v>
       </c>
       <c r="J13">
-        <v>6937</v>
+        <v>789</v>
       </c>
       <c r="K13">
-        <v>635</v>
+        <v>46</v>
       </c>
       <c r="L13">
-        <v>1610</v>
+        <v>115</v>
       </c>
       <c r="M13">
-        <v>1682</v>
+        <v>148</v>
       </c>
       <c r="N13">
-        <v>1973</v>
+        <v>174</v>
       </c>
       <c r="O13">
-        <v>332</v>
+        <v>41</v>
       </c>
       <c r="P13">
-        <v>1885</v>
+        <v>192</v>
       </c>
       <c r="Q13">
-        <v>3543</v>
+        <v>432</v>
       </c>
       <c r="R13">
-        <v>819</v>
+        <v>78</v>
       </c>
       <c r="S13">
-        <v>106</v>
+        <v>4</v>
       </c>
       <c r="T13">
-        <v>1382</v>
+        <v>202</v>
       </c>
       <c r="U13">
-        <v>1207</v>
+        <v>92</v>
       </c>
       <c r="V13">
-        <v>8857</v>
+        <v>946</v>
       </c>
       <c r="W13">
-        <v>0.471</v>
+        <v>0.477</v>
       </c>
       <c r="X13">
-        <v>0.394</v>
+        <v>0.4</v>
       </c>
       <c r="Y13">
-        <v>0.853</v>
+        <v>0.851</v>
       </c>
       <c r="Z13">
-        <v>29.4</v>
+        <v>27.8</v>
       </c>
       <c r="AA13">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="AB13">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="AC13">
-        <v>5</v>
+        <v>5.7</v>
       </c>
       <c r="AD13" t="s">
         <v>130</v>
@@ -1974,76 +1968,76 @@
         <v>22</v>
       </c>
       <c r="F14">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>715</v>
+        <v>63</v>
       </c>
       <c r="H14">
-        <v>14875</v>
+        <v>707</v>
       </c>
       <c r="I14">
-        <v>1772</v>
+        <v>106</v>
       </c>
       <c r="J14">
-        <v>3777</v>
+        <v>214</v>
       </c>
       <c r="K14">
-        <v>216</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>626</v>
+        <v>2</v>
       </c>
       <c r="M14">
-        <v>373</v>
+        <v>31</v>
       </c>
       <c r="N14">
-        <v>575</v>
+        <v>48</v>
       </c>
       <c r="O14">
-        <v>804</v>
+        <v>54</v>
       </c>
       <c r="P14">
-        <v>2676</v>
+        <v>160</v>
       </c>
       <c r="Q14">
-        <v>506</v>
+        <v>14</v>
       </c>
       <c r="R14">
-        <v>459</v>
+        <v>24</v>
       </c>
       <c r="S14">
-        <v>336</v>
+        <v>22</v>
       </c>
       <c r="T14">
-        <v>352</v>
+        <v>15</v>
       </c>
       <c r="U14">
-        <v>1227</v>
+        <v>97</v>
       </c>
       <c r="V14">
-        <v>4133</v>
+        <v>243</v>
       </c>
       <c r="W14">
-        <v>0.469</v>
+        <v>0.495</v>
       </c>
       <c r="X14">
-        <v>0.345</v>
+        <v>0</v>
       </c>
       <c r="Y14">
-        <v>0.649</v>
+        <v>0.646</v>
       </c>
       <c r="Z14">
-        <v>20.8</v>
+        <v>11.2</v>
       </c>
       <c r="AA14">
-        <v>5.8</v>
+        <v>3.9</v>
       </c>
       <c r="AB14">
-        <v>3.7</v>
+        <v>2.5</v>
       </c>
       <c r="AC14">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="AD14" t="s">
         <v>130</v>
@@ -2149,76 +2143,76 @@
         <v>21</v>
       </c>
       <c r="F16">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>699</v>
+        <v>80</v>
       </c>
       <c r="H16">
-        <v>23998</v>
+        <v>2896</v>
       </c>
       <c r="I16">
-        <v>5682</v>
+        <v>528</v>
       </c>
       <c r="J16">
-        <v>11931</v>
+        <v>1143</v>
       </c>
       <c r="K16">
-        <v>2495</v>
+        <v>166</v>
       </c>
       <c r="L16">
-        <v>5739</v>
+        <v>380</v>
       </c>
       <c r="M16">
-        <v>2560</v>
+        <v>177</v>
       </c>
       <c r="N16">
-        <v>2827</v>
+        <v>200</v>
       </c>
       <c r="O16">
-        <v>490</v>
+        <v>48</v>
       </c>
       <c r="P16">
-        <v>3158</v>
+        <v>356</v>
       </c>
       <c r="Q16">
-        <v>4621</v>
+        <v>472</v>
       </c>
       <c r="R16">
-        <v>1205</v>
+        <v>152</v>
       </c>
       <c r="S16">
-        <v>156</v>
+        <v>19</v>
       </c>
       <c r="T16">
-        <v>2179</v>
+        <v>243</v>
       </c>
       <c r="U16">
-        <v>1732</v>
+        <v>252</v>
       </c>
       <c r="V16">
-        <v>16419</v>
+        <v>1399</v>
       </c>
       <c r="W16">
-        <v>0.476</v>
+        <v>0.462</v>
       </c>
       <c r="X16">
-        <v>0.435</v>
+        <v>0.437</v>
       </c>
       <c r="Y16">
-        <v>0.906</v>
+        <v>0.885</v>
       </c>
       <c r="Z16">
-        <v>34.3</v>
+        <v>36.2</v>
       </c>
       <c r="AA16">
-        <v>23.5</v>
+        <v>17.5</v>
       </c>
       <c r="AB16">
         <v>4.5</v>
       </c>
       <c r="AC16">
-        <v>6.6</v>
+        <v>5.9</v>
       </c>
       <c r="AD16" t="s">
         <v>130</v>
@@ -2241,76 +2235,76 @@
         <v>21</v>
       </c>
       <c r="F17">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>293</v>
+        <v>69</v>
       </c>
       <c r="H17">
-        <v>4132</v>
+        <v>915</v>
       </c>
       <c r="I17">
-        <v>567</v>
+        <v>137</v>
       </c>
       <c r="J17">
-        <v>1410</v>
+        <v>295</v>
       </c>
       <c r="K17">
-        <v>188</v>
+        <v>29</v>
       </c>
       <c r="L17">
-        <v>535</v>
+        <v>95</v>
       </c>
       <c r="M17">
-        <v>200</v>
+        <v>46</v>
       </c>
       <c r="N17">
-        <v>257</v>
+        <v>56</v>
       </c>
       <c r="O17">
-        <v>143</v>
+        <v>34</v>
       </c>
       <c r="P17">
-        <v>764</v>
+        <v>174</v>
       </c>
       <c r="Q17">
-        <v>212</v>
+        <v>34</v>
       </c>
       <c r="R17">
-        <v>116</v>
+        <v>25</v>
       </c>
       <c r="S17">
-        <v>117</v>
+        <v>26</v>
       </c>
       <c r="T17">
-        <v>204</v>
+        <v>48</v>
       </c>
       <c r="U17">
-        <v>480</v>
+        <v>114</v>
       </c>
       <c r="V17">
-        <v>1522</v>
+        <v>349</v>
       </c>
       <c r="W17">
-        <v>0.402</v>
+        <v>0.464</v>
       </c>
       <c r="X17">
-        <v>0.351</v>
+        <v>0.305</v>
       </c>
       <c r="Y17">
-        <v>0.778</v>
+        <v>0.821</v>
       </c>
       <c r="Z17">
-        <v>14.1</v>
+        <v>13.3</v>
       </c>
       <c r="AA17">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AB17">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="AC17">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="AD17" t="s">
         <v>130</v>
@@ -2333,76 +2327,76 @@
         <v>20</v>
       </c>
       <c r="F18">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>814</v>
+        <v>77</v>
       </c>
       <c r="H18">
-        <v>27803</v>
+        <v>1664</v>
       </c>
       <c r="I18">
-        <v>5860</v>
+        <v>255</v>
       </c>
       <c r="J18">
-        <v>12814</v>
+        <v>512</v>
       </c>
       <c r="K18">
-        <v>340</v>
+        <v>4</v>
       </c>
       <c r="L18">
-        <v>1203</v>
+        <v>16</v>
       </c>
       <c r="M18">
-        <v>4250</v>
+        <v>148</v>
       </c>
       <c r="N18">
-        <v>5128</v>
+        <v>194</v>
       </c>
       <c r="O18">
-        <v>608</v>
+        <v>66</v>
       </c>
       <c r="P18">
-        <v>3550</v>
+        <v>223</v>
       </c>
       <c r="Q18">
-        <v>2903</v>
+        <v>53</v>
       </c>
       <c r="R18">
-        <v>803</v>
+        <v>43</v>
       </c>
       <c r="S18">
-        <v>235</v>
+        <v>18</v>
       </c>
       <c r="T18">
-        <v>1673</v>
+        <v>62</v>
       </c>
       <c r="U18">
-        <v>1844</v>
+        <v>176</v>
       </c>
       <c r="V18">
-        <v>16310</v>
+        <v>662</v>
       </c>
       <c r="W18">
-        <v>0.457</v>
+        <v>0.498</v>
       </c>
       <c r="X18">
-        <v>0.283</v>
+        <v>0.25</v>
       </c>
       <c r="Y18">
-        <v>0.829</v>
+        <v>0.763</v>
       </c>
       <c r="Z18">
-        <v>34.2</v>
+        <v>21.6</v>
       </c>
       <c r="AA18">
-        <v>20</v>
+        <v>8.6</v>
       </c>
       <c r="AB18">
-        <v>4.4</v>
+        <v>2.9</v>
       </c>
       <c r="AC18">
-        <v>3.6</v>
+        <v>0.7</v>
       </c>
       <c r="AD18" t="s">
         <v>130</v>
@@ -2425,76 +2419,76 @@
         <v>23</v>
       </c>
       <c r="F19">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>394</v>
+        <v>56</v>
       </c>
       <c r="H19">
-        <v>7511</v>
+        <v>1087</v>
       </c>
       <c r="I19">
-        <v>1093</v>
+        <v>179</v>
       </c>
       <c r="J19">
-        <v>2705</v>
+        <v>391</v>
       </c>
       <c r="K19">
-        <v>444</v>
+        <v>68</v>
       </c>
       <c r="L19">
-        <v>1256</v>
+        <v>175</v>
       </c>
       <c r="M19">
-        <v>379</v>
+        <v>55</v>
       </c>
       <c r="N19">
-        <v>460</v>
+        <v>68</v>
       </c>
       <c r="O19">
-        <v>213</v>
+        <v>40</v>
       </c>
       <c r="P19">
-        <v>875</v>
+        <v>108</v>
       </c>
       <c r="Q19">
-        <v>889</v>
+        <v>112</v>
       </c>
       <c r="R19">
-        <v>349</v>
+        <v>42</v>
       </c>
       <c r="S19">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="T19">
-        <v>410</v>
+        <v>55</v>
       </c>
       <c r="U19">
-        <v>775</v>
+        <v>116</v>
       </c>
       <c r="V19">
-        <v>3009</v>
+        <v>481</v>
       </c>
       <c r="W19">
-        <v>0.404</v>
+        <v>0.458</v>
       </c>
       <c r="X19">
-        <v>0.354</v>
+        <v>0.389</v>
       </c>
       <c r="Y19">
-        <v>0.824</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="Z19">
-        <v>19.1</v>
+        <v>19.4</v>
       </c>
       <c r="AA19">
-        <v>7.6</v>
+        <v>8.6</v>
       </c>
       <c r="AB19">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="AC19">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="AD19" t="s">
         <v>130</v>
@@ -2517,76 +2511,76 @@
         <v>22</v>
       </c>
       <c r="F20">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>681</v>
+        <v>76</v>
       </c>
       <c r="H20">
-        <v>14278</v>
+        <v>1384</v>
       </c>
       <c r="I20">
-        <v>1986</v>
+        <v>190</v>
       </c>
       <c r="J20">
-        <v>4866</v>
+        <v>448</v>
       </c>
       <c r="K20">
-        <v>1016</v>
+        <v>64</v>
       </c>
       <c r="L20">
-        <v>2689</v>
+        <v>162</v>
       </c>
       <c r="M20">
-        <v>473</v>
+        <v>61</v>
       </c>
       <c r="N20">
-        <v>559</v>
+        <v>70</v>
       </c>
       <c r="O20">
-        <v>216</v>
+        <v>33</v>
       </c>
       <c r="P20">
-        <v>1481</v>
+        <v>159</v>
       </c>
       <c r="Q20">
-        <v>755</v>
+        <v>74</v>
       </c>
       <c r="R20">
-        <v>371</v>
+        <v>20</v>
       </c>
       <c r="S20">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="T20">
-        <v>456</v>
+        <v>74</v>
       </c>
       <c r="U20">
-        <v>783</v>
+        <v>72</v>
       </c>
       <c r="V20">
-        <v>5461</v>
+        <v>505</v>
       </c>
       <c r="W20">
-        <v>0.408</v>
+        <v>0.424</v>
       </c>
       <c r="X20">
-        <v>0.378</v>
+        <v>0.395</v>
       </c>
       <c r="Y20">
-        <v>0.846</v>
+        <v>0.871</v>
       </c>
       <c r="Z20">
-        <v>21</v>
+        <v>18.2</v>
       </c>
       <c r="AA20">
-        <v>8</v>
+        <v>6.6</v>
       </c>
       <c r="AB20">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AC20">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AD20" t="s">
         <v>130</v>
@@ -2609,76 +2603,76 @@
         <v>20</v>
       </c>
       <c r="F21">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>594</v>
+        <v>72</v>
       </c>
       <c r="H21">
-        <v>18242</v>
+        <v>2677</v>
       </c>
       <c r="I21">
-        <v>3510</v>
+        <v>533</v>
       </c>
       <c r="J21">
-        <v>7978</v>
+        <v>1165</v>
       </c>
       <c r="K21">
-        <v>500</v>
+        <v>36</v>
       </c>
       <c r="L21">
-        <v>1548</v>
+        <v>141</v>
       </c>
       <c r="M21">
-        <v>1827</v>
+        <v>348</v>
       </c>
       <c r="N21">
-        <v>2415</v>
+        <v>465</v>
       </c>
       <c r="O21">
-        <v>500</v>
+        <v>66</v>
       </c>
       <c r="P21">
-        <v>2720</v>
+        <v>380</v>
       </c>
       <c r="Q21">
-        <v>2852</v>
+        <v>414</v>
       </c>
       <c r="R21">
-        <v>734</v>
+        <v>109</v>
       </c>
       <c r="S21">
-        <v>222</v>
+        <v>26</v>
       </c>
       <c r="T21">
-        <v>1489</v>
+        <v>216</v>
       </c>
       <c r="U21">
-        <v>1308</v>
+        <v>204</v>
       </c>
       <c r="V21">
-        <v>9347</v>
+        <v>1450</v>
       </c>
       <c r="W21">
-        <v>0.44</v>
+        <v>0.458</v>
       </c>
       <c r="X21">
-        <v>0.323</v>
+        <v>0.255</v>
       </c>
       <c r="Y21">
-        <v>0.757</v>
+        <v>0.748</v>
       </c>
       <c r="Z21">
-        <v>30.7</v>
+        <v>37.2</v>
       </c>
       <c r="AA21">
-        <v>15.7</v>
+        <v>20.1</v>
       </c>
       <c r="AB21">
-        <v>4.6</v>
+        <v>5.3</v>
       </c>
       <c r="AC21">
-        <v>4.8</v>
+        <v>5.8</v>
       </c>
       <c r="AD21" t="s">
         <v>130</v>
@@ -2701,76 +2695,76 @@
         <v>20</v>
       </c>
       <c r="F22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="H22">
-        <v>3738</v>
+        <v>2339</v>
       </c>
       <c r="I22">
-        <v>551</v>
+        <v>397</v>
       </c>
       <c r="J22">
-        <v>1379</v>
+        <v>952</v>
       </c>
       <c r="K22">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="L22">
-        <v>349</v>
+        <v>215</v>
       </c>
       <c r="M22">
-        <v>284</v>
+        <v>223</v>
       </c>
       <c r="N22">
-        <v>351</v>
+        <v>270</v>
       </c>
       <c r="O22">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="P22">
-        <v>307</v>
+        <v>191</v>
       </c>
       <c r="Q22">
-        <v>634</v>
+        <v>356</v>
       </c>
       <c r="R22">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="S22">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="T22">
-        <v>382</v>
+        <v>233</v>
       </c>
       <c r="U22">
-        <v>179</v>
+        <v>98</v>
       </c>
       <c r="V22">
-        <v>1504</v>
+        <v>1094</v>
       </c>
       <c r="W22">
-        <v>0.4</v>
+        <v>0.417</v>
       </c>
       <c r="X22">
-        <v>0.338</v>
+        <v>0.358</v>
       </c>
       <c r="Y22">
-        <v>0.8090000000000001</v>
+        <v>0.826</v>
       </c>
       <c r="Z22">
-        <v>22.9</v>
+        <v>28.9</v>
       </c>
       <c r="AA22">
-        <v>9.199999999999999</v>
+        <v>13.5</v>
       </c>
       <c r="AB22">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="AC22">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="AD22" t="s">
         <v>130</v>
@@ -2793,76 +2787,76 @@
         <v>23</v>
       </c>
       <c r="F23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="H23">
-        <v>1311</v>
+        <v>217</v>
       </c>
       <c r="I23">
-        <v>182</v>
+        <v>38</v>
       </c>
       <c r="J23">
-        <v>458</v>
+        <v>82</v>
       </c>
       <c r="K23">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="L23">
-        <v>146</v>
+        <v>26</v>
       </c>
       <c r="M23">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="N23">
-        <v>178</v>
+        <v>46</v>
       </c>
       <c r="O23">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="P23">
-        <v>175</v>
+        <v>29</v>
       </c>
       <c r="Q23">
-        <v>207</v>
+        <v>39</v>
       </c>
       <c r="R23">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="S23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T23">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="U23">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="V23">
-        <v>508</v>
+        <v>106</v>
       </c>
       <c r="W23">
-        <v>0.397</v>
+        <v>0.463</v>
       </c>
       <c r="X23">
-        <v>0.301</v>
+        <v>0.269</v>
       </c>
       <c r="Y23">
-        <v>0.5620000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="Z23">
-        <v>11.6</v>
+        <v>6.8</v>
       </c>
       <c r="AA23">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="AB23">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="AC23">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="AD23" t="s">
         <v>130</v>
@@ -2885,76 +2879,76 @@
         <v>22</v>
       </c>
       <c r="F24">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>417</v>
+        <v>11</v>
       </c>
       <c r="H24">
-        <v>9071</v>
+        <v>182</v>
       </c>
       <c r="I24">
-        <v>1001</v>
+        <v>28</v>
       </c>
       <c r="J24">
-        <v>2309</v>
+        <v>59</v>
       </c>
       <c r="K24">
-        <v>186</v>
+        <v>7</v>
       </c>
       <c r="L24">
-        <v>572</v>
+        <v>9</v>
       </c>
       <c r="M24">
-        <v>566</v>
+        <v>18</v>
       </c>
       <c r="N24">
-        <v>751</v>
+        <v>29</v>
       </c>
       <c r="O24">
-        <v>389</v>
+        <v>15</v>
       </c>
       <c r="P24">
-        <v>1360</v>
+        <v>33</v>
       </c>
       <c r="Q24">
-        <v>441</v>
+        <v>7</v>
       </c>
       <c r="R24">
-        <v>379</v>
+        <v>7</v>
       </c>
       <c r="S24">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="T24">
-        <v>447</v>
+        <v>10</v>
       </c>
       <c r="U24">
-        <v>792</v>
+        <v>13</v>
       </c>
       <c r="V24">
-        <v>2754</v>
+        <v>81</v>
       </c>
       <c r="W24">
-        <v>0.434</v>
+        <v>0.475</v>
       </c>
       <c r="X24">
-        <v>0.325</v>
+        <v>0.778</v>
       </c>
       <c r="Y24">
-        <v>0.754</v>
+        <v>0.621</v>
       </c>
       <c r="Z24">
-        <v>21.8</v>
+        <v>16.5</v>
       </c>
       <c r="AA24">
-        <v>6.6</v>
+        <v>7.4</v>
       </c>
       <c r="AB24">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="AC24">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="AD24" t="s">
         <v>130</v>
@@ -2977,76 +2971,73 @@
         <v>24</v>
       </c>
       <c r="F25">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>799</v>
+        <v>82</v>
       </c>
       <c r="H25">
-        <v>20094</v>
+        <v>2204</v>
       </c>
       <c r="I25">
-        <v>3166</v>
+        <v>311</v>
       </c>
       <c r="J25">
-        <v>6147</v>
+        <v>629</v>
       </c>
       <c r="K25">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>1260</v>
+        <v>113</v>
       </c>
       <c r="N25">
-        <v>1776</v>
+        <v>175</v>
       </c>
       <c r="O25">
-        <v>1851</v>
+        <v>226</v>
       </c>
       <c r="P25">
-        <v>4998</v>
+        <v>611</v>
       </c>
       <c r="Q25">
-        <v>812</v>
+        <v>70</v>
       </c>
       <c r="R25">
-        <v>450</v>
+        <v>50</v>
       </c>
       <c r="S25">
-        <v>838</v>
+        <v>104</v>
       </c>
       <c r="T25">
-        <v>940</v>
+        <v>114</v>
       </c>
       <c r="U25">
-        <v>2020</v>
+        <v>282</v>
       </c>
       <c r="V25">
-        <v>7618</v>
+        <v>735</v>
       </c>
       <c r="W25">
-        <v>0.515</v>
-      </c>
-      <c r="X25">
-        <v>0.22</v>
+        <v>0.494</v>
       </c>
       <c r="Y25">
-        <v>0.709</v>
+        <v>0.646</v>
       </c>
       <c r="Z25">
-        <v>25.1</v>
+        <v>26.9</v>
       </c>
       <c r="AA25">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB25">
-        <v>6.3</v>
+        <v>7.5</v>
       </c>
       <c r="AC25">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AD25" t="s">
         <v>130</v>
@@ -3155,76 +3146,76 @@
         <v>22</v>
       </c>
       <c r="F27">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>682</v>
+        <v>20</v>
       </c>
       <c r="H27">
-        <v>17323</v>
+        <v>115</v>
       </c>
       <c r="I27">
-        <v>2157</v>
+        <v>15</v>
       </c>
       <c r="J27">
-        <v>5089</v>
+        <v>39</v>
       </c>
       <c r="K27">
-        <v>1278</v>
+        <v>6</v>
       </c>
       <c r="L27">
-        <v>3183</v>
+        <v>22</v>
       </c>
       <c r="M27">
-        <v>491</v>
+        <v>4</v>
       </c>
       <c r="N27">
-        <v>606</v>
+        <v>6</v>
       </c>
       <c r="O27">
-        <v>404</v>
+        <v>8</v>
       </c>
       <c r="P27">
-        <v>2376</v>
+        <v>17</v>
       </c>
       <c r="Q27">
-        <v>1083</v>
+        <v>5</v>
       </c>
       <c r="R27">
-        <v>685</v>
+        <v>6</v>
       </c>
       <c r="S27">
-        <v>535</v>
+        <v>3</v>
       </c>
       <c r="T27">
-        <v>698</v>
+        <v>5</v>
       </c>
       <c r="U27">
-        <v>1203</v>
+        <v>9</v>
       </c>
       <c r="V27">
-        <v>6083</v>
+        <v>40</v>
       </c>
       <c r="W27">
-        <v>0.424</v>
+        <v>0.385</v>
       </c>
       <c r="X27">
-        <v>0.402</v>
+        <v>0.273</v>
       </c>
       <c r="Y27">
-        <v>0.8100000000000001</v>
+        <v>0.667</v>
       </c>
       <c r="Z27">
-        <v>25.4</v>
+        <v>5.8</v>
       </c>
       <c r="AA27">
-        <v>8.9</v>
+        <v>2</v>
       </c>
       <c r="AB27">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="AC27">
-        <v>1.6</v>
+        <v>0.3</v>
       </c>
       <c r="AD27" t="s">
         <v>130</v>
@@ -3339,76 +3330,76 @@
         <v>24</v>
       </c>
       <c r="F29">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>428</v>
+        <v>29</v>
       </c>
       <c r="H29">
-        <v>7233</v>
+        <v>511</v>
       </c>
       <c r="I29">
-        <v>947</v>
+        <v>81</v>
       </c>
       <c r="J29">
-        <v>2156</v>
+        <v>225</v>
       </c>
       <c r="K29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L29">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="M29">
-        <v>984</v>
+        <v>84</v>
       </c>
       <c r="N29">
-        <v>1333</v>
+        <v>113</v>
       </c>
       <c r="O29">
-        <v>745</v>
+        <v>60</v>
       </c>
       <c r="P29">
-        <v>1808</v>
+        <v>138</v>
       </c>
       <c r="Q29">
-        <v>181</v>
+        <v>28</v>
       </c>
       <c r="R29">
-        <v>207</v>
+        <v>17</v>
       </c>
       <c r="S29">
-        <v>91</v>
+        <v>8</v>
       </c>
       <c r="T29">
-        <v>319</v>
+        <v>21</v>
       </c>
       <c r="U29">
-        <v>869</v>
+        <v>70</v>
       </c>
       <c r="V29">
-        <v>2881</v>
+        <v>246</v>
       </c>
       <c r="W29">
-        <v>0.439</v>
+        <v>0.36</v>
       </c>
       <c r="X29">
-        <v>0.136</v>
+        <v>0</v>
       </c>
       <c r="Y29">
-        <v>0.738</v>
+        <v>0.743</v>
       </c>
       <c r="Z29">
-        <v>16.9</v>
+        <v>17.6</v>
       </c>
       <c r="AA29">
-        <v>6.7</v>
+        <v>8.5</v>
       </c>
       <c r="AB29">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="AC29">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AD29" t="s">
         <v>130</v>
@@ -3431,76 +3422,76 @@
         <v>20</v>
       </c>
       <c r="F30">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>827</v>
+        <v>76</v>
       </c>
       <c r="H30">
-        <v>28391</v>
+        <v>1738</v>
       </c>
       <c r="I30">
-        <v>6116</v>
+        <v>233</v>
       </c>
       <c r="J30">
-        <v>13817</v>
+        <v>578</v>
       </c>
       <c r="K30">
-        <v>2299</v>
+        <v>93</v>
       </c>
       <c r="L30">
-        <v>6329</v>
+        <v>248</v>
       </c>
       <c r="M30">
-        <v>6241</v>
+        <v>194</v>
       </c>
       <c r="N30">
-        <v>7276</v>
+        <v>240</v>
       </c>
       <c r="O30">
-        <v>646</v>
+        <v>47</v>
       </c>
       <c r="P30">
-        <v>4397</v>
+        <v>244</v>
       </c>
       <c r="Q30">
-        <v>5201</v>
+        <v>137</v>
       </c>
       <c r="R30">
-        <v>1298</v>
+        <v>80</v>
       </c>
       <c r="S30">
-        <v>439</v>
+        <v>20</v>
       </c>
       <c r="T30">
-        <v>3044</v>
+        <v>106</v>
       </c>
       <c r="U30">
-        <v>2188</v>
+        <v>200</v>
       </c>
       <c r="V30">
-        <v>20772</v>
+        <v>753</v>
       </c>
       <c r="W30">
-        <v>0.443</v>
+        <v>0.403</v>
       </c>
       <c r="X30">
-        <v>0.363</v>
+        <v>0.375</v>
       </c>
       <c r="Y30">
-        <v>0.858</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="Z30">
-        <v>34.3</v>
+        <v>22.9</v>
       </c>
       <c r="AA30">
-        <v>25.1</v>
+        <v>9.9</v>
       </c>
       <c r="AB30">
-        <v>5.3</v>
+        <v>3.2</v>
       </c>
       <c r="AC30">
-        <v>6.3</v>
+        <v>1.8</v>
       </c>
       <c r="AD30" t="s">
         <v>130</v>
@@ -3523,76 +3514,76 @@
         <v>22</v>
       </c>
       <c r="F31">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>535</v>
+        <v>43</v>
       </c>
       <c r="H31">
-        <v>13854</v>
+        <v>355</v>
       </c>
       <c r="I31">
-        <v>2249</v>
+        <v>37</v>
       </c>
       <c r="J31">
-        <v>5111</v>
+        <v>104</v>
       </c>
       <c r="K31">
-        <v>249</v>
+        <v>4</v>
       </c>
       <c r="L31">
-        <v>762</v>
+        <v>19</v>
       </c>
       <c r="M31">
-        <v>1240</v>
+        <v>35</v>
       </c>
       <c r="N31">
-        <v>1564</v>
+        <v>47</v>
       </c>
       <c r="O31">
-        <v>314</v>
+        <v>15</v>
       </c>
       <c r="P31">
-        <v>1716</v>
+        <v>55</v>
       </c>
       <c r="Q31">
-        <v>1009</v>
+        <v>13</v>
       </c>
       <c r="R31">
-        <v>358</v>
+        <v>10</v>
       </c>
       <c r="S31">
-        <v>183</v>
+        <v>9</v>
       </c>
       <c r="T31">
-        <v>639</v>
+        <v>14</v>
       </c>
       <c r="U31">
-        <v>930</v>
+        <v>25</v>
       </c>
       <c r="V31">
-        <v>5987</v>
+        <v>113</v>
       </c>
       <c r="W31">
-        <v>0.44</v>
+        <v>0.356</v>
       </c>
       <c r="X31">
-        <v>0.327</v>
+        <v>0.211</v>
       </c>
       <c r="Y31">
-        <v>0.793</v>
+        <v>0.745</v>
       </c>
       <c r="Z31">
-        <v>25.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AA31">
-        <v>11.2</v>
+        <v>2.6</v>
       </c>
       <c r="AB31">
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
       <c r="AC31">
-        <v>1.9</v>
+        <v>0.3</v>
       </c>
       <c r="AD31" t="s">
         <v>130</v>
@@ -3615,76 +3606,76 @@
         <v>22</v>
       </c>
       <c r="F32">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>409</v>
+        <v>47</v>
       </c>
       <c r="H32">
-        <v>7692</v>
+        <v>624</v>
       </c>
       <c r="I32">
-        <v>1357</v>
+        <v>99</v>
       </c>
       <c r="J32">
-        <v>2733</v>
+        <v>201</v>
       </c>
       <c r="K32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L32">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="M32">
-        <v>515</v>
+        <v>46</v>
       </c>
       <c r="N32">
-        <v>737</v>
+        <v>68</v>
       </c>
       <c r="O32">
-        <v>879</v>
+        <v>76</v>
       </c>
       <c r="P32">
-        <v>2389</v>
+        <v>175</v>
       </c>
       <c r="Q32">
-        <v>322</v>
+        <v>20</v>
       </c>
       <c r="R32">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="S32">
-        <v>272</v>
+        <v>21</v>
       </c>
       <c r="T32">
-        <v>426</v>
+        <v>30</v>
       </c>
       <c r="U32">
-        <v>875</v>
+        <v>92</v>
       </c>
       <c r="V32">
-        <v>3232</v>
+        <v>244</v>
       </c>
       <c r="W32">
-        <v>0.497</v>
+        <v>0.493</v>
       </c>
       <c r="X32">
-        <v>0.136</v>
+        <v>0</v>
       </c>
       <c r="Y32">
-        <v>0.699</v>
+        <v>0.676</v>
       </c>
       <c r="Z32">
-        <v>18.8</v>
+        <v>13.3</v>
       </c>
       <c r="AA32">
-        <v>7.9</v>
+        <v>5.2</v>
       </c>
       <c r="AB32">
-        <v>5.8</v>
+        <v>3.7</v>
       </c>
       <c r="AC32">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AD32" t="s">
         <v>130</v>
@@ -3707,76 +3698,76 @@
         <v>19</v>
       </c>
       <c r="F33">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>708</v>
+        <v>73</v>
       </c>
       <c r="H33">
-        <v>23544</v>
+        <v>1767</v>
       </c>
       <c r="I33">
-        <v>4439</v>
+        <v>230</v>
       </c>
       <c r="J33">
-        <v>9809</v>
+        <v>520</v>
       </c>
       <c r="K33">
-        <v>922</v>
+        <v>62</v>
       </c>
       <c r="L33">
-        <v>2597</v>
+        <v>159</v>
       </c>
       <c r="M33">
-        <v>1444</v>
+        <v>65</v>
       </c>
       <c r="N33">
-        <v>1859</v>
+        <v>86</v>
       </c>
       <c r="O33">
-        <v>612</v>
+        <v>56</v>
       </c>
       <c r="P33">
-        <v>2772</v>
+        <v>191</v>
       </c>
       <c r="Q33">
-        <v>4533</v>
+        <v>280</v>
       </c>
       <c r="R33">
-        <v>1059</v>
+        <v>79</v>
       </c>
       <c r="S33">
-        <v>361</v>
+        <v>18</v>
       </c>
       <c r="T33">
-        <v>1945</v>
+        <v>156</v>
       </c>
       <c r="U33">
-        <v>1624</v>
+        <v>153</v>
       </c>
       <c r="V33">
-        <v>11244</v>
+        <v>587</v>
       </c>
       <c r="W33">
-        <v>0.453</v>
+        <v>0.442</v>
       </c>
       <c r="X33">
-        <v>0.355</v>
+        <v>0.39</v>
       </c>
       <c r="Y33">
-        <v>0.777</v>
+        <v>0.756</v>
       </c>
       <c r="Z33">
-        <v>33.3</v>
+        <v>24.2</v>
       </c>
       <c r="AA33">
-        <v>15.9</v>
+        <v>8</v>
       </c>
       <c r="AB33">
-        <v>3.9</v>
+        <v>2.6</v>
       </c>
       <c r="AC33">
-        <v>6.4</v>
+        <v>3.8</v>
       </c>
       <c r="AD33" t="s">
         <v>130</v>
@@ -3799,76 +3790,76 @@
         <v>25</v>
       </c>
       <c r="F34">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="H34">
-        <v>594</v>
+        <v>131</v>
       </c>
       <c r="I34">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="J34">
-        <v>253</v>
+        <v>53</v>
       </c>
       <c r="K34">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="L34">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="M34">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="N34">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="O34">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="P34">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="Q34">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="R34">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="S34">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="T34">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="U34">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="V34">
-        <v>268</v>
+        <v>58</v>
       </c>
       <c r="W34">
-        <v>0.375</v>
+        <v>0.396</v>
       </c>
       <c r="X34">
-        <v>0.277</v>
+        <v>0.313</v>
       </c>
       <c r="Y34">
-        <v>0.806</v>
+        <v>0.846</v>
       </c>
       <c r="Z34">
-        <v>10.4</v>
+        <v>5.2</v>
       </c>
       <c r="AA34">
-        <v>4.7</v>
+        <v>2.3</v>
       </c>
       <c r="AB34">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="AC34">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="AD34" t="s">
         <v>130</v>
@@ -3983,76 +3974,76 @@
         <v>20</v>
       </c>
       <c r="F36">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>803</v>
+        <v>73</v>
       </c>
       <c r="H36">
-        <v>23001</v>
+        <v>1323</v>
       </c>
       <c r="I36">
-        <v>4195</v>
+        <v>201</v>
       </c>
       <c r="J36">
-        <v>8154</v>
+        <v>370</v>
       </c>
       <c r="K36">
-        <v>528</v>
+        <v>1</v>
       </c>
       <c r="L36">
-        <v>1461</v>
+        <v>2</v>
       </c>
       <c r="M36">
-        <v>1181</v>
+        <v>58</v>
       </c>
       <c r="N36">
-        <v>1554</v>
+        <v>92</v>
       </c>
       <c r="O36">
-        <v>1734</v>
+        <v>138</v>
       </c>
       <c r="P36">
-        <v>5906</v>
+        <v>397</v>
       </c>
       <c r="Q36">
-        <v>618</v>
+        <v>10</v>
       </c>
       <c r="R36">
-        <v>347</v>
+        <v>25</v>
       </c>
       <c r="S36">
-        <v>1668</v>
+        <v>97</v>
       </c>
       <c r="T36">
-        <v>1080</v>
+        <v>68</v>
       </c>
       <c r="U36">
-        <v>2264</v>
+        <v>194</v>
       </c>
       <c r="V36">
-        <v>10099</v>
+        <v>461</v>
       </c>
       <c r="W36">
-        <v>0.514</v>
+        <v>0.543</v>
       </c>
       <c r="X36">
-        <v>0.361</v>
+        <v>0.5</v>
       </c>
       <c r="Y36">
-        <v>0.76</v>
+        <v>0.63</v>
       </c>
       <c r="Z36">
-        <v>28.6</v>
+        <v>18.1</v>
       </c>
       <c r="AA36">
-        <v>12.6</v>
+        <v>6.3</v>
       </c>
       <c r="AB36">
-        <v>7.4</v>
+        <v>5.4</v>
       </c>
       <c r="AC36">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="AD36" t="s">
         <v>130</v>
@@ -4167,76 +4158,73 @@
         <v>24</v>
       </c>
       <c r="F38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G38">
+        <v>14</v>
+      </c>
+      <c r="H38">
+        <v>73</v>
+      </c>
+      <c r="I38">
+        <v>12</v>
+      </c>
+      <c r="J38">
+        <v>29</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>13</v>
+      </c>
+      <c r="N38">
+        <v>19</v>
+      </c>
+      <c r="O38">
+        <v>8</v>
+      </c>
+      <c r="P38">
+        <v>19</v>
+      </c>
+      <c r="Q38">
+        <v>1</v>
+      </c>
+      <c r="R38">
+        <v>4</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>6</v>
+      </c>
+      <c r="U38">
+        <v>10</v>
+      </c>
+      <c r="V38">
         <v>37</v>
       </c>
-      <c r="H38">
-        <v>442</v>
-      </c>
-      <c r="I38">
-        <v>46</v>
-      </c>
-      <c r="J38">
-        <v>100</v>
-      </c>
-      <c r="K38">
-        <v>1</v>
-      </c>
-      <c r="L38">
-        <v>6</v>
-      </c>
-      <c r="M38">
-        <v>46</v>
-      </c>
-      <c r="N38">
-        <v>69</v>
-      </c>
-      <c r="O38">
-        <v>34</v>
-      </c>
-      <c r="P38">
-        <v>95</v>
-      </c>
-      <c r="Q38">
-        <v>22</v>
-      </c>
-      <c r="R38">
-        <v>21</v>
-      </c>
-      <c r="S38">
-        <v>0</v>
-      </c>
-      <c r="T38">
-        <v>21</v>
-      </c>
-      <c r="U38">
-        <v>45</v>
-      </c>
-      <c r="V38">
-        <v>139</v>
-      </c>
       <c r="W38">
-        <v>0.46</v>
-      </c>
-      <c r="X38">
-        <v>0.167</v>
+        <v>0.414</v>
       </c>
       <c r="Y38">
-        <v>0.667</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="Z38">
-        <v>11.9</v>
+        <v>5.2</v>
       </c>
       <c r="AA38">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="AB38">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="AC38">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="AD38" t="s">
         <v>130</v>
@@ -4259,73 +4247,73 @@
         <v>20</v>
       </c>
       <c r="F39">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G39">
-        <v>555</v>
+        <v>82</v>
       </c>
       <c r="H39">
-        <v>16844</v>
+        <v>2671</v>
       </c>
       <c r="I39">
-        <v>2750</v>
+        <v>451</v>
       </c>
       <c r="J39">
-        <v>7099</v>
+        <v>1216</v>
       </c>
       <c r="K39">
-        <v>914</v>
+        <v>145</v>
       </c>
       <c r="L39">
-        <v>2648</v>
+        <v>388</v>
       </c>
       <c r="M39">
-        <v>1387</v>
+        <v>223</v>
       </c>
       <c r="N39">
-        <v>1743</v>
+        <v>273</v>
       </c>
       <c r="O39">
-        <v>329</v>
+        <v>49</v>
       </c>
       <c r="P39">
-        <v>1659</v>
+        <v>282</v>
       </c>
       <c r="Q39">
-        <v>3151</v>
+        <v>470</v>
       </c>
       <c r="R39">
-        <v>679</v>
+        <v>105</v>
       </c>
       <c r="S39">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="T39">
-        <v>1203</v>
+        <v>200</v>
       </c>
       <c r="U39">
-        <v>996</v>
+        <v>191</v>
       </c>
       <c r="V39">
-        <v>7801</v>
+        <v>1270</v>
       </c>
       <c r="W39">
-        <v>0.387</v>
+        <v>0.371</v>
       </c>
       <c r="X39">
-        <v>0.345</v>
+        <v>0.374</v>
       </c>
       <c r="Y39">
-        <v>0.796</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="Z39">
-        <v>30.3</v>
+        <v>32.6</v>
       </c>
       <c r="AA39">
-        <v>14.1</v>
+        <v>15.5</v>
       </c>
       <c r="AB39">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="AC39">
         <v>5.7</v>
@@ -4351,76 +4339,76 @@
         <v>22</v>
       </c>
       <c r="F40">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G40">
-        <v>635</v>
+        <v>80</v>
       </c>
       <c r="H40">
-        <v>11323</v>
+        <v>2232</v>
       </c>
       <c r="I40">
-        <v>1465</v>
+        <v>290</v>
       </c>
       <c r="J40">
-        <v>3203</v>
+        <v>603</v>
       </c>
       <c r="K40">
-        <v>400</v>
+        <v>36</v>
       </c>
       <c r="L40">
-        <v>1101</v>
+        <v>115</v>
       </c>
       <c r="M40">
-        <v>589</v>
+        <v>125</v>
       </c>
       <c r="N40">
-        <v>765</v>
+        <v>176</v>
       </c>
       <c r="O40">
-        <v>763</v>
+        <v>194</v>
       </c>
       <c r="P40">
-        <v>2522</v>
+        <v>478</v>
       </c>
       <c r="Q40">
-        <v>525</v>
+        <v>58</v>
       </c>
       <c r="R40">
-        <v>321</v>
+        <v>79</v>
       </c>
       <c r="S40">
-        <v>153</v>
+        <v>29</v>
       </c>
       <c r="T40">
-        <v>438</v>
+        <v>82</v>
       </c>
       <c r="U40">
-        <v>1225</v>
+        <v>230</v>
       </c>
       <c r="V40">
-        <v>3919</v>
+        <v>741</v>
       </c>
       <c r="W40">
-        <v>0.457</v>
+        <v>0.481</v>
       </c>
       <c r="X40">
-        <v>0.363</v>
+        <v>0.313</v>
       </c>
       <c r="Y40">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="Z40">
-        <v>17.8</v>
+        <v>27.9</v>
       </c>
       <c r="AA40">
-        <v>6.2</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AB40">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AC40">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="AD40" t="s">
         <v>130</v>
@@ -4443,76 +4431,76 @@
         <v>22</v>
       </c>
       <c r="F41">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G41">
-        <v>634</v>
+        <v>65</v>
       </c>
       <c r="H41">
-        <v>13081</v>
+        <v>757</v>
       </c>
       <c r="I41">
-        <v>1992</v>
+        <v>95</v>
       </c>
       <c r="J41">
-        <v>4177</v>
+        <v>210</v>
       </c>
       <c r="K41">
-        <v>324</v>
+        <v>15</v>
       </c>
       <c r="L41">
-        <v>1046</v>
+        <v>46</v>
       </c>
       <c r="M41">
-        <v>747</v>
+        <v>51</v>
       </c>
       <c r="N41">
-        <v>1078</v>
+        <v>70</v>
       </c>
       <c r="O41">
-        <v>517</v>
+        <v>34</v>
       </c>
       <c r="P41">
-        <v>2284</v>
+        <v>128</v>
       </c>
       <c r="Q41">
-        <v>1355</v>
+        <v>48</v>
       </c>
       <c r="R41">
-        <v>497</v>
+        <v>21</v>
       </c>
       <c r="S41">
-        <v>570</v>
+        <v>43</v>
       </c>
       <c r="T41">
-        <v>928</v>
+        <v>62</v>
       </c>
       <c r="U41">
-        <v>1421</v>
+        <v>126</v>
       </c>
       <c r="V41">
-        <v>5055</v>
+        <v>256</v>
       </c>
       <c r="W41">
-        <v>0.477</v>
+        <v>0.452</v>
       </c>
       <c r="X41">
-        <v>0.31</v>
+        <v>0.326</v>
       </c>
       <c r="Y41">
-        <v>0.6929999999999999</v>
+        <v>0.729</v>
       </c>
       <c r="Z41">
-        <v>20.6</v>
+        <v>11.6</v>
       </c>
       <c r="AA41">
-        <v>8</v>
+        <v>3.9</v>
       </c>
       <c r="AB41">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="AC41">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="AD41" t="s">
         <v>130</v>
@@ -4716,76 +4704,76 @@
         <v>22</v>
       </c>
       <c r="F44">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G44">
-        <v>551</v>
+        <v>65</v>
       </c>
       <c r="H44">
-        <v>16088</v>
+        <v>1318</v>
       </c>
       <c r="I44">
-        <v>2496</v>
+        <v>201</v>
       </c>
       <c r="J44">
-        <v>5424</v>
+        <v>390</v>
       </c>
       <c r="K44">
-        <v>473</v>
+        <v>34</v>
       </c>
       <c r="L44">
-        <v>1319</v>
+        <v>83</v>
       </c>
       <c r="M44">
-        <v>1512</v>
+        <v>106</v>
       </c>
       <c r="N44">
-        <v>1964</v>
+        <v>140</v>
       </c>
       <c r="O44">
-        <v>351</v>
+        <v>42</v>
       </c>
       <c r="P44">
-        <v>1506</v>
+        <v>124</v>
       </c>
       <c r="Q44">
-        <v>3316</v>
+        <v>203</v>
       </c>
       <c r="R44">
-        <v>636</v>
+        <v>48</v>
       </c>
       <c r="S44">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="T44">
-        <v>1159</v>
+        <v>82</v>
       </c>
       <c r="U44">
-        <v>898</v>
+        <v>89</v>
       </c>
       <c r="V44">
-        <v>6977</v>
+        <v>542</v>
       </c>
       <c r="W44">
-        <v>0.46</v>
+        <v>0.515</v>
       </c>
       <c r="X44">
-        <v>0.359</v>
+        <v>0.41</v>
       </c>
       <c r="Y44">
-        <v>0.77</v>
+        <v>0.757</v>
       </c>
       <c r="Z44">
-        <v>29.2</v>
+        <v>20.3</v>
       </c>
       <c r="AA44">
-        <v>12.7</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AB44">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
       <c r="AC44">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="AD44" t="s">
         <v>130</v>
@@ -4808,76 +4796,76 @@
         <v>23</v>
       </c>
       <c r="F45">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G45">
-        <v>787</v>
+        <v>82</v>
       </c>
       <c r="H45">
-        <v>25134</v>
+        <v>2025</v>
       </c>
       <c r="I45">
-        <v>3548</v>
+        <v>273</v>
       </c>
       <c r="J45">
-        <v>8379</v>
+        <v>565</v>
       </c>
       <c r="K45">
-        <v>1658</v>
+        <v>63</v>
       </c>
       <c r="L45">
-        <v>4353</v>
+        <v>165</v>
       </c>
       <c r="M45">
-        <v>1621</v>
+        <v>160</v>
       </c>
       <c r="N45">
-        <v>1967</v>
+        <v>193</v>
       </c>
       <c r="O45">
-        <v>404</v>
+        <v>50</v>
       </c>
       <c r="P45">
-        <v>2400</v>
+        <v>191</v>
       </c>
       <c r="Q45">
-        <v>1695</v>
+        <v>124</v>
       </c>
       <c r="R45">
-        <v>827</v>
+        <v>64</v>
       </c>
       <c r="S45">
-        <v>155</v>
+        <v>15</v>
       </c>
       <c r="T45">
-        <v>999</v>
+        <v>93</v>
       </c>
       <c r="U45">
-        <v>1707</v>
+        <v>152</v>
       </c>
       <c r="V45">
-        <v>10375</v>
+        <v>769</v>
       </c>
       <c r="W45">
-        <v>0.423</v>
+        <v>0.483</v>
       </c>
       <c r="X45">
-        <v>0.381</v>
+        <v>0.382</v>
       </c>
       <c r="Y45">
-        <v>0.824</v>
+        <v>0.829</v>
       </c>
       <c r="Z45">
-        <v>31.9</v>
+        <v>24.7</v>
       </c>
       <c r="AA45">
-        <v>13.2</v>
+        <v>9.4</v>
       </c>
       <c r="AB45">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="AC45">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="AD45" t="s">
         <v>130</v>
@@ -4900,76 +4888,76 @@
         <v>22</v>
       </c>
       <c r="F46">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G46">
-        <v>267</v>
+        <v>81</v>
       </c>
       <c r="H46">
-        <v>3896</v>
+        <v>1269</v>
       </c>
       <c r="I46">
-        <v>440</v>
+        <v>154</v>
       </c>
       <c r="J46">
-        <v>1122</v>
+        <v>368</v>
       </c>
       <c r="K46">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="L46">
-        <v>317</v>
+        <v>71</v>
       </c>
       <c r="M46">
-        <v>150</v>
+        <v>52</v>
       </c>
       <c r="N46">
-        <v>208</v>
+        <v>72</v>
       </c>
       <c r="O46">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="P46">
-        <v>348</v>
+        <v>129</v>
       </c>
       <c r="Q46">
-        <v>760</v>
+        <v>266</v>
       </c>
       <c r="R46">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="S46">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T46">
-        <v>281</v>
+        <v>85</v>
       </c>
       <c r="U46">
-        <v>296</v>
+        <v>115</v>
       </c>
       <c r="V46">
-        <v>1141</v>
+        <v>382</v>
       </c>
       <c r="W46">
-        <v>0.392</v>
+        <v>0.418</v>
       </c>
       <c r="X46">
-        <v>0.35</v>
+        <v>0.31</v>
       </c>
       <c r="Y46">
-        <v>0.721</v>
+        <v>0.722</v>
       </c>
       <c r="Z46">
-        <v>14.6</v>
+        <v>15.7</v>
       </c>
       <c r="AA46">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="AB46">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="AC46">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="AD46" t="s">
         <v>130</v>
@@ -4992,76 +4980,76 @@
         <v>22</v>
       </c>
       <c r="F47">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G47">
-        <v>539</v>
+        <v>60</v>
       </c>
       <c r="H47">
-        <v>12110</v>
+        <v>719</v>
       </c>
       <c r="I47">
-        <v>1665</v>
+        <v>104</v>
       </c>
       <c r="J47">
-        <v>3969</v>
+        <v>268</v>
       </c>
       <c r="K47">
-        <v>775</v>
+        <v>42</v>
       </c>
       <c r="L47">
-        <v>2078</v>
+        <v>132</v>
       </c>
       <c r="M47">
-        <v>883</v>
+        <v>31</v>
       </c>
       <c r="N47">
-        <v>1004</v>
+        <v>39</v>
       </c>
       <c r="O47">
-        <v>148</v>
+        <v>9</v>
       </c>
       <c r="P47">
-        <v>1120</v>
+        <v>99</v>
       </c>
       <c r="Q47">
-        <v>583</v>
+        <v>39</v>
       </c>
       <c r="R47">
-        <v>413</v>
+        <v>18</v>
       </c>
       <c r="S47">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="T47">
-        <v>410</v>
+        <v>25</v>
       </c>
       <c r="U47">
-        <v>632</v>
+        <v>52</v>
       </c>
       <c r="V47">
-        <v>4988</v>
+        <v>281</v>
       </c>
       <c r="W47">
-        <v>0.42</v>
+        <v>0.388</v>
       </c>
       <c r="X47">
-        <v>0.373</v>
+        <v>0.318</v>
       </c>
       <c r="Y47">
-        <v>0.879</v>
+        <v>0.795</v>
       </c>
       <c r="Z47">
-        <v>22.5</v>
+        <v>12</v>
       </c>
       <c r="AA47">
-        <v>9.300000000000001</v>
+        <v>4.7</v>
       </c>
       <c r="AB47">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="AC47">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="AD47" t="s">
         <v>130</v>
@@ -5084,76 +5072,76 @@
         <v>21</v>
       </c>
       <c r="F48">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G48">
-        <v>668</v>
+        <v>10</v>
       </c>
       <c r="H48">
-        <v>12927</v>
+        <v>38</v>
       </c>
       <c r="I48">
-        <v>2100</v>
+        <v>10</v>
       </c>
       <c r="J48">
-        <v>4879</v>
+        <v>24</v>
       </c>
       <c r="K48">
-        <v>1053</v>
+        <v>2</v>
       </c>
       <c r="L48">
-        <v>2705</v>
+        <v>4</v>
       </c>
       <c r="M48">
-        <v>576</v>
+        <v>4</v>
       </c>
       <c r="N48">
-        <v>677</v>
+        <v>7</v>
       </c>
       <c r="O48">
-        <v>208</v>
+        <v>1</v>
       </c>
       <c r="P48">
-        <v>1109</v>
+        <v>2</v>
       </c>
       <c r="Q48">
-        <v>1543</v>
+        <v>5</v>
       </c>
       <c r="R48">
-        <v>439</v>
+        <v>0</v>
       </c>
       <c r="S48">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="T48">
-        <v>656</v>
+        <v>4</v>
       </c>
       <c r="U48">
-        <v>876</v>
+        <v>6</v>
       </c>
       <c r="V48">
-        <v>5829</v>
+        <v>26</v>
       </c>
       <c r="W48">
-        <v>0.43</v>
+        <v>0.417</v>
       </c>
       <c r="X48">
-        <v>0.389</v>
+        <v>0.5</v>
       </c>
       <c r="Y48">
-        <v>0.851</v>
+        <v>0.571</v>
       </c>
       <c r="Z48">
-        <v>19.4</v>
+        <v>3.8</v>
       </c>
       <c r="AA48">
-        <v>8.699999999999999</v>
+        <v>2.6</v>
       </c>
       <c r="AB48">
-        <v>1.7</v>
+        <v>0.2</v>
       </c>
       <c r="AC48">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="AD48" t="s">
         <v>130</v>
@@ -5176,76 +5164,70 @@
         <v>20</v>
       </c>
       <c r="F49">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G49">
-        <v>189</v>
+        <v>13</v>
       </c>
       <c r="H49">
-        <v>3446</v>
+        <v>54</v>
       </c>
       <c r="I49">
-        <v>557</v>
+        <v>7</v>
       </c>
       <c r="J49">
-        <v>1366</v>
+        <v>19</v>
       </c>
       <c r="K49">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="L49">
-        <v>348</v>
+        <v>0</v>
       </c>
       <c r="M49">
-        <v>173</v>
+        <v>0</v>
       </c>
       <c r="N49">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="O49">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="P49">
-        <v>790</v>
+        <v>10</v>
       </c>
       <c r="Q49">
-        <v>153</v>
+        <v>1</v>
       </c>
       <c r="R49">
-        <v>74</v>
+        <v>2</v>
       </c>
       <c r="S49">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="T49">
-        <v>187</v>
+        <v>4</v>
       </c>
       <c r="U49">
-        <v>335</v>
+        <v>13</v>
       </c>
       <c r="V49">
-        <v>1398</v>
+        <v>14</v>
       </c>
       <c r="W49">
-        <v>0.408</v>
-      </c>
-      <c r="X49">
-        <v>0.319</v>
-      </c>
-      <c r="Y49">
-        <v>0.706</v>
+        <v>0.368</v>
       </c>
       <c r="Z49">
-        <v>18.2</v>
+        <v>4.2</v>
       </c>
       <c r="AA49">
-        <v>7.4</v>
+        <v>1.1</v>
       </c>
       <c r="AB49">
-        <v>4.2</v>
+        <v>0.8</v>
       </c>
       <c r="AC49">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="AD49" t="s">
         <v>130</v>
@@ -5268,76 +5250,76 @@
         <v>23</v>
       </c>
       <c r="F50">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G50">
-        <v>261</v>
+        <v>56</v>
       </c>
       <c r="H50">
-        <v>3929</v>
+        <v>865</v>
       </c>
       <c r="I50">
-        <v>549</v>
+        <v>145</v>
       </c>
       <c r="J50">
-        <v>1444</v>
+        <v>354</v>
       </c>
       <c r="K50">
-        <v>218</v>
+        <v>60</v>
       </c>
       <c r="L50">
-        <v>690</v>
+        <v>174</v>
       </c>
       <c r="M50">
-        <v>207</v>
+        <v>60</v>
       </c>
       <c r="N50">
-        <v>279</v>
+        <v>75</v>
       </c>
       <c r="O50">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="P50">
-        <v>377</v>
+        <v>88</v>
       </c>
       <c r="Q50">
-        <v>567</v>
+        <v>106</v>
       </c>
       <c r="R50">
-        <v>125</v>
+        <v>35</v>
       </c>
       <c r="S50">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="T50">
-        <v>229</v>
+        <v>59</v>
       </c>
       <c r="U50">
-        <v>237</v>
+        <v>53</v>
       </c>
       <c r="V50">
-        <v>1523</v>
+        <v>410</v>
       </c>
       <c r="W50">
-        <v>0.38</v>
+        <v>0.41</v>
       </c>
       <c r="X50">
-        <v>0.316</v>
+        <v>0.345</v>
       </c>
       <c r="Y50">
-        <v>0.742</v>
+        <v>0.8</v>
       </c>
       <c r="Z50">
-        <v>15.1</v>
+        <v>15.4</v>
       </c>
       <c r="AA50">
-        <v>5.8</v>
+        <v>7.3</v>
       </c>
       <c r="AB50">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="AC50">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="AD50" t="s">
         <v>130</v>
@@ -5360,76 +5342,76 @@
         <v>22</v>
       </c>
       <c r="F51">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G51">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="H51">
-        <v>820</v>
+        <v>405</v>
       </c>
       <c r="I51">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="J51">
-        <v>268</v>
+        <v>130</v>
       </c>
       <c r="K51">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="L51">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="M51">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="N51">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="O51">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="P51">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="Q51">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="R51">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="S51">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T51">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="U51">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="V51">
-        <v>278</v>
+        <v>134</v>
       </c>
       <c r="W51">
-        <v>0.384</v>
+        <v>0.354</v>
       </c>
       <c r="X51">
-        <v>0.367</v>
+        <v>0.357</v>
       </c>
       <c r="Y51">
-        <v>0.642</v>
+        <v>0.711</v>
       </c>
       <c r="Z51">
-        <v>9.9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AA51">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="AB51">
         <v>1</v>
       </c>
       <c r="AC51">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AD51" t="s">
         <v>130</v>
@@ -5452,76 +5434,76 @@
         <v>23</v>
       </c>
       <c r="F52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G52">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="H52">
-        <v>786</v>
+        <v>303</v>
       </c>
       <c r="I52">
-        <v>139</v>
+        <v>45</v>
       </c>
       <c r="J52">
-        <v>315</v>
+        <v>119</v>
       </c>
       <c r="K52">
+        <v>5</v>
+      </c>
+      <c r="L52">
+        <v>22</v>
+      </c>
+      <c r="M52">
+        <v>33</v>
+      </c>
+      <c r="N52">
+        <v>46</v>
+      </c>
+      <c r="O52">
+        <v>21</v>
+      </c>
+      <c r="P52">
+        <v>46</v>
+      </c>
+      <c r="Q52">
+        <v>16</v>
+      </c>
+      <c r="R52">
+        <v>10</v>
+      </c>
+      <c r="S52">
+        <v>3</v>
+      </c>
+      <c r="T52">
         <v>19</v>
       </c>
-      <c r="L52">
-        <v>67</v>
-      </c>
-      <c r="M52">
-        <v>54</v>
-      </c>
-      <c r="N52">
-        <v>74</v>
-      </c>
-      <c r="O52">
-        <v>47</v>
-      </c>
-      <c r="P52">
-        <v>108</v>
-      </c>
-      <c r="Q52">
-        <v>48</v>
-      </c>
-      <c r="R52">
-        <v>24</v>
-      </c>
-      <c r="S52">
-        <v>8</v>
-      </c>
-      <c r="T52">
-        <v>65</v>
-      </c>
       <c r="U52">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="V52">
-        <v>351</v>
+        <v>128</v>
       </c>
       <c r="W52">
-        <v>0.441</v>
+        <v>0.378</v>
       </c>
       <c r="X52">
-        <v>0.284</v>
+        <v>0.227</v>
       </c>
       <c r="Y52">
-        <v>0.73</v>
+        <v>0.717</v>
       </c>
       <c r="Z52">
-        <v>12.1</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA52">
-        <v>5.4</v>
+        <v>4.1</v>
       </c>
       <c r="AB52">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="AC52">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="AD52" t="s">
         <v>130</v>
@@ -5544,76 +5526,76 @@
         <v>21</v>
       </c>
       <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>71</v>
+      </c>
+      <c r="H53">
+        <v>719</v>
+      </c>
+      <c r="I53">
+        <v>90</v>
+      </c>
+      <c r="J53">
+        <v>227</v>
+      </c>
+      <c r="K53">
+        <v>7</v>
+      </c>
+      <c r="L53">
+        <v>32</v>
+      </c>
+      <c r="M53">
+        <v>41</v>
+      </c>
+      <c r="N53">
+        <v>49</v>
+      </c>
+      <c r="O53">
+        <v>5</v>
+      </c>
+      <c r="P53">
+        <v>67</v>
+      </c>
+      <c r="Q53">
+        <v>122</v>
+      </c>
+      <c r="R53">
+        <v>34</v>
+      </c>
+      <c r="S53">
         <v>11</v>
       </c>
-      <c r="G53">
-        <v>771</v>
-      </c>
-      <c r="H53">
-        <v>21214</v>
-      </c>
-      <c r="I53">
-        <v>3425</v>
-      </c>
-      <c r="J53">
-        <v>7700</v>
-      </c>
-      <c r="K53">
-        <v>672</v>
-      </c>
-      <c r="L53">
-        <v>1886</v>
-      </c>
-      <c r="M53">
-        <v>2168</v>
-      </c>
-      <c r="N53">
-        <v>2568</v>
-      </c>
-      <c r="O53">
-        <v>259</v>
-      </c>
-      <c r="P53">
-        <v>1901</v>
-      </c>
-      <c r="Q53">
-        <v>4453</v>
-      </c>
-      <c r="R53">
-        <v>902</v>
-      </c>
-      <c r="S53">
-        <v>265</v>
-      </c>
       <c r="T53">
-        <v>1739</v>
+        <v>50</v>
       </c>
       <c r="U53">
-        <v>1486</v>
+        <v>82</v>
       </c>
       <c r="V53">
-        <v>9690</v>
+        <v>228</v>
       </c>
       <c r="W53">
-        <v>0.445</v>
+        <v>0.396</v>
       </c>
       <c r="X53">
-        <v>0.356</v>
+        <v>0.219</v>
       </c>
       <c r="Y53">
-        <v>0.844</v>
+        <v>0.837</v>
       </c>
       <c r="Z53">
-        <v>27.5</v>
+        <v>10.1</v>
       </c>
       <c r="AA53">
-        <v>12.6</v>
+        <v>3.2</v>
       </c>
       <c r="AB53">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="AC53">
-        <v>5.8</v>
+        <v>1.7</v>
       </c>
       <c r="AD53" t="s">
         <v>130</v>
@@ -5636,76 +5618,76 @@
         <v>23</v>
       </c>
       <c r="F54">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G54">
-        <v>570</v>
+        <v>27</v>
       </c>
       <c r="H54">
-        <v>11998</v>
+        <v>334</v>
       </c>
       <c r="I54">
-        <v>1278</v>
+        <v>44</v>
       </c>
       <c r="J54">
-        <v>3173</v>
+        <v>101</v>
       </c>
       <c r="K54">
-        <v>551</v>
+        <v>13</v>
       </c>
       <c r="L54">
-        <v>1588</v>
+        <v>37</v>
       </c>
       <c r="M54">
-        <v>478</v>
+        <v>35</v>
       </c>
       <c r="N54">
-        <v>652</v>
+        <v>50</v>
       </c>
       <c r="O54">
-        <v>227</v>
+        <v>6</v>
       </c>
       <c r="P54">
-        <v>1292</v>
+        <v>31</v>
       </c>
       <c r="Q54">
-        <v>976</v>
+        <v>21</v>
       </c>
       <c r="R54">
-        <v>481</v>
+        <v>13</v>
       </c>
       <c r="S54">
-        <v>178</v>
+        <v>6</v>
       </c>
       <c r="T54">
-        <v>538</v>
+        <v>27</v>
       </c>
       <c r="U54">
-        <v>1078</v>
+        <v>42</v>
       </c>
       <c r="V54">
-        <v>3585</v>
+        <v>136</v>
       </c>
       <c r="W54">
-        <v>0.403</v>
+        <v>0.436</v>
       </c>
       <c r="X54">
-        <v>0.347</v>
+        <v>0.351</v>
       </c>
       <c r="Y54">
-        <v>0.733</v>
+        <v>0.7</v>
       </c>
       <c r="Z54">
-        <v>21</v>
+        <v>12.4</v>
       </c>
       <c r="AA54">
-        <v>6.3</v>
+        <v>5</v>
       </c>
       <c r="AB54">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="AC54">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="AD54" t="s">
         <v>130</v>
@@ -5728,19 +5710,19 @@
         <v>22</v>
       </c>
       <c r="F55">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G55">
-        <v>224</v>
+        <v>68</v>
       </c>
       <c r="H55">
-        <v>2357</v>
+        <v>883</v>
       </c>
       <c r="I55">
-        <v>182</v>
+        <v>77</v>
       </c>
       <c r="J55">
-        <v>321</v>
+        <v>131</v>
       </c>
       <c r="K55">
         <v>0</v>
@@ -5749,52 +5731,52 @@
         <v>0</v>
       </c>
       <c r="M55">
-        <v>119</v>
+        <v>54</v>
       </c>
       <c r="N55">
-        <v>206</v>
+        <v>93</v>
       </c>
       <c r="O55">
-        <v>203</v>
+        <v>85</v>
       </c>
       <c r="P55">
-        <v>595</v>
+        <v>243</v>
       </c>
       <c r="Q55">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="R55">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="S55">
-        <v>184</v>
+        <v>89</v>
       </c>
       <c r="T55">
-        <v>123</v>
+        <v>43</v>
       </c>
       <c r="U55">
-        <v>453</v>
+        <v>162</v>
       </c>
       <c r="V55">
-        <v>483</v>
+        <v>208</v>
       </c>
       <c r="W55">
-        <v>0.5669999999999999</v>
+        <v>0.588</v>
       </c>
       <c r="Y55">
-        <v>0.578</v>
+        <v>0.581</v>
       </c>
       <c r="Z55">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AA55">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="AB55">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="AC55">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AD55" t="s">
         <v>130</v>
@@ -5817,76 +5799,76 @@
         <v>22</v>
       </c>
       <c r="F56">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G56">
-        <v>483</v>
+        <v>73</v>
       </c>
       <c r="H56">
-        <v>11299</v>
+        <v>1872</v>
       </c>
       <c r="I56">
-        <v>2124</v>
+        <v>398</v>
       </c>
       <c r="J56">
-        <v>5003</v>
+        <v>883</v>
       </c>
       <c r="K56">
-        <v>735</v>
+        <v>117</v>
       </c>
       <c r="L56">
-        <v>2051</v>
+        <v>313</v>
       </c>
       <c r="M56">
-        <v>767</v>
+        <v>144</v>
       </c>
       <c r="N56">
-        <v>924</v>
+        <v>177</v>
       </c>
       <c r="O56">
-        <v>407</v>
+        <v>72</v>
       </c>
       <c r="P56">
-        <v>1348</v>
+        <v>211</v>
       </c>
       <c r="Q56">
-        <v>677</v>
+        <v>114</v>
       </c>
       <c r="R56">
-        <v>405</v>
+        <v>58</v>
       </c>
       <c r="S56">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="T56">
-        <v>491</v>
+        <v>76</v>
       </c>
       <c r="U56">
-        <v>739</v>
+        <v>127</v>
       </c>
       <c r="V56">
-        <v>5750</v>
+        <v>1057</v>
       </c>
       <c r="W56">
-        <v>0.425</v>
+        <v>0.451</v>
       </c>
       <c r="X56">
-        <v>0.358</v>
+        <v>0.374</v>
       </c>
       <c r="Y56">
-        <v>0.83</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="Z56">
-        <v>23.4</v>
+        <v>25.6</v>
       </c>
       <c r="AA56">
-        <v>11.9</v>
+        <v>14.5</v>
       </c>
       <c r="AB56">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="AC56">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="AD56" t="s">
         <v>130</v>
@@ -5909,76 +5891,76 @@
         <v>23</v>
       </c>
       <c r="F57">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G57">
-        <v>206</v>
+        <v>24</v>
       </c>
       <c r="H57">
-        <v>3736</v>
+        <v>782</v>
       </c>
       <c r="I57">
-        <v>599</v>
+        <v>140</v>
       </c>
       <c r="J57">
-        <v>1313</v>
+        <v>283</v>
       </c>
       <c r="K57">
-        <v>199</v>
+        <v>33</v>
       </c>
       <c r="L57">
-        <v>545</v>
+        <v>92</v>
       </c>
       <c r="M57">
-        <v>201</v>
+        <v>52</v>
       </c>
       <c r="N57">
-        <v>268</v>
+        <v>62</v>
       </c>
       <c r="O57">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="P57">
-        <v>493</v>
+        <v>110</v>
       </c>
       <c r="Q57">
-        <v>301</v>
+        <v>66</v>
       </c>
       <c r="R57">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="S57">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="T57">
-        <v>142</v>
+        <v>29</v>
       </c>
       <c r="U57">
-        <v>241</v>
+        <v>49</v>
       </c>
       <c r="V57">
-        <v>1598</v>
+        <v>365</v>
       </c>
       <c r="W57">
-        <v>0.456</v>
+        <v>0.495</v>
       </c>
       <c r="X57">
-        <v>0.365</v>
+        <v>0.359</v>
       </c>
       <c r="Y57">
-        <v>0.75</v>
+        <v>0.839</v>
       </c>
       <c r="Z57">
-        <v>18.1</v>
+        <v>32.6</v>
       </c>
       <c r="AA57">
-        <v>7.8</v>
+        <v>15.2</v>
       </c>
       <c r="AB57">
-        <v>2.4</v>
+        <v>4.6</v>
       </c>
       <c r="AC57">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="AD57" t="s">
         <v>130</v>
@@ -6001,76 +5983,76 @@
         <v>22</v>
       </c>
       <c r="F58">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G58">
-        <v>153</v>
+        <v>78</v>
       </c>
       <c r="H58">
-        <v>2922</v>
+        <v>1764</v>
       </c>
       <c r="I58">
-        <v>437</v>
+        <v>261</v>
       </c>
       <c r="J58">
-        <v>1061</v>
+        <v>651</v>
       </c>
       <c r="K58">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="L58">
-        <v>183</v>
+        <v>100</v>
       </c>
       <c r="M58">
-        <v>153</v>
+        <v>103</v>
       </c>
       <c r="N58">
-        <v>232</v>
+        <v>144</v>
       </c>
       <c r="O58">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="P58">
-        <v>545</v>
+        <v>348</v>
       </c>
       <c r="Q58">
-        <v>364</v>
+        <v>223</v>
       </c>
       <c r="R58">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="S58">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="T58">
-        <v>222</v>
+        <v>124</v>
       </c>
       <c r="U58">
-        <v>199</v>
+        <v>126</v>
       </c>
       <c r="V58">
-        <v>1085</v>
+        <v>656</v>
       </c>
       <c r="W58">
-        <v>0.412</v>
+        <v>0.401</v>
       </c>
       <c r="X58">
-        <v>0.317</v>
+        <v>0.31</v>
       </c>
       <c r="Y58">
-        <v>0.659</v>
+        <v>0.715</v>
       </c>
       <c r="Z58">
-        <v>19.1</v>
+        <v>22.6</v>
       </c>
       <c r="AA58">
-        <v>7.1</v>
+        <v>8.4</v>
       </c>
       <c r="AB58">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="AC58">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="AD58" t="s">
         <v>130</v>
@@ -6093,73 +6075,73 @@
         <v>24</v>
       </c>
       <c r="F59">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G59">
-        <v>249</v>
+        <v>80</v>
       </c>
       <c r="H59">
-        <v>3966</v>
+        <v>1321</v>
       </c>
       <c r="I59">
-        <v>560</v>
+        <v>224</v>
       </c>
       <c r="J59">
-        <v>1266</v>
+        <v>497</v>
       </c>
       <c r="K59">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="L59">
+        <v>56</v>
+      </c>
+      <c r="M59">
+        <v>136</v>
+      </c>
+      <c r="N59">
         <v>175</v>
       </c>
-      <c r="M59">
-        <v>267</v>
-      </c>
-      <c r="N59">
-        <v>360</v>
-      </c>
       <c r="O59">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="P59">
-        <v>573</v>
+        <v>201</v>
       </c>
       <c r="Q59">
-        <v>180</v>
+        <v>52</v>
       </c>
       <c r="R59">
-        <v>134</v>
+        <v>34</v>
       </c>
       <c r="S59">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="T59">
-        <v>204</v>
+        <v>94</v>
       </c>
       <c r="U59">
-        <v>311</v>
+        <v>106</v>
       </c>
       <c r="V59">
-        <v>1436</v>
+        <v>595</v>
       </c>
       <c r="W59">
-        <v>0.442</v>
+        <v>0.451</v>
       </c>
       <c r="X59">
-        <v>0.28</v>
+        <v>0.196</v>
       </c>
       <c r="Y59">
-        <v>0.742</v>
+        <v>0.777</v>
       </c>
       <c r="Z59">
-        <v>15.9</v>
+        <v>16.5</v>
       </c>
       <c r="AA59">
-        <v>5.8</v>
+        <v>7.4</v>
       </c>
       <c r="AB59">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="AC59">
         <v>0.7</v>
